--- a/doc/ba_design.xlsx
+++ b/doc/ba_design.xlsx
@@ -352,10 +352,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>danh sách những người có quyền approve user này</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>sender</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -405,6 +401,10 @@
   </si>
   <si>
     <t>Mỗi bản ghi lưu timesheet của 1 người trong 1 tháng</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>danh sách những người có quyền approve group này</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1186,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1266,7 +1266,7 @@
         <v>77</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1358,7 +1358,7 @@
         <v>18</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -1521,7 +1521,7 @@
         <v>36</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="2:5">
@@ -1539,13 +1539,13 @@
     <row r="61" spans="2:5">
       <c r="B61" s="4"/>
       <c r="C61" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" s="4"/>
       <c r="C62" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="2:5">
@@ -1568,7 +1568,7 @@
         <v>31</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="2:4">
@@ -1644,22 +1644,22 @@
     </row>
     <row r="86" spans="2:3">
       <c r="C86" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="C87" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="C88" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="C89" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1789,23 +1789,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="8"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
